--- a/Glossaire_des_variables.xlsx
+++ b/Glossaire_des_variables.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Année</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Identifiant</t>
+          <t>L'année de la donnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>nombre d'année</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,17 +500,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Année</t>
+          <t>Population 1er Juin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L'année de la donnée</t>
+          <t>Effectif de la population au 1er juin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nombre d'année</t>
+          <t>1000 habitants</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,12 +532,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Population 1er Juin</t>
+          <t>Population Masculine 1er Juin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Effectif de la population au 1er juin</t>
+          <t>Effectif des Hommes au 1er juin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,12 +564,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Population Masculine 1er Juin</t>
+          <t>Population Féminine 1er Juin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Effectif des Hommes au 1er juin</t>
+          <t>Effectif des Femmes au 1er juin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,17 +596,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Population Féminine 1er Juin</t>
+          <t>Naissances</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Effectif des Femmes au 1er juin</t>
+          <t>Naissances total</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1000 habitants</t>
+          <t>1000 naissances</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Naissances</t>
+          <t>Décès</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naissances total</t>
+          <t>Décès total</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1000 naissances</t>
+          <t>1000 décès</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,17 +660,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Décès</t>
+          <t>Espérance de vie à la naissance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Décès total</t>
+          <t>Expérience de vie à la naissances</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000 décès</t>
+          <t>nombre d'années</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,17 +692,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Espérance de vie à la naissance</t>
+          <t>Solde migratoire</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Expérience de vie à la naissances</t>
+          <t>Solde migratoire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nombre d'années</t>
+          <t>1000 personnes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,17 +724,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Solde migratoire</t>
+          <t>Taux de migration net</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Solde migratoire</t>
+          <t>Taux migratoire net</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1000 personnes</t>
+          <t>1000 habitants</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -756,27 +756,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taux de migration net</t>
+          <t>PIB_prix_constant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Taux migratoire net</t>
+          <t>Produit Intérieur Brut au prix constant</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1000 habitants</t>
+          <t>FCFA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://population.un.org/wpp/downloads?folder=Standard%20Projections&amp;group=Most%20used</t>
+          <t>https://unctadstat.unctad.org/EN/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>Population 0-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1950 - 2023</t>
+          <t>1962 - 2023</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
